--- a/biology/Histoire de la zoologie et de la botanique/Edward_Blyth/Edward_Blyth.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Blyth/Edward_Blyth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Blyth est un zoologiste britannique, né le 23 décembre 1810 à Londres et mort le 27 décembre 1873.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que ne recevant aucune formation scientifique, Blyth montre très jeune un intérêt pour l'histoire naturelle et plus particulièrement les oiseaux. En 1836, il réalise une réédition du classique Selborne de Gilbert White (1720-1793). En 1840, il participe à la traduction du Règne animal de Georges Cuvier (1769-1832) et se consacre particulièrement aux vertébrés (en dehors des poissons).
 À la suite d'une petite annonce parue dans la presse londonienne, il postule pour le poste de conservateur du muséum de la Société royale asiatique du Bengale. Ayant obtenu le poste, il part pour Calcutta en 1841. Il y demeurera vingt-deux ans.
@@ -546,7 +560,9 @@
           <t>Taxons qui lui sont dédiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tragopan de Blyth (Tragopan blythii), oiseau de la famille des Phasianidae, décrit par Thomas Claverhill Jerdon en 1870 ;
 Rufipenne de Blyth (Onychognathus blythii), oiseau de la famille des Sturnidae, décrit par Gustav Hartlaub en 1859 ;
@@ -579,7 +595,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1835 à 1837 : Trois articles dans The Magazine of Natural History
 1863 : Catalogue of Mammalia in the Museum of Asiatic Society. Calcutta. Savielle &amp; Cranenburgh, Bengal Printing Company Limited, 187 pages. (lire en ligne)
